--- a/Team-Data/2007-08/11-12-2007-08.xlsx
+++ b/Team-Data/2007-08/11-12-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
         <v>20</v>
@@ -774,13 +841,13 @@
         <v>24</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>8</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -789,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
         <v>19</v>
@@ -798,7 +865,7 @@
         <v>27</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -819,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -956,13 +1023,13 @@
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>14</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -974,13 +1041,13 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
         <v>1</v>
@@ -989,16 +1056,16 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1138,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1156,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
@@ -1174,16 +1241,16 @@
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1305,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1350,16 +1417,16 @@
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ5" t="n">
         <v>18</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -1394,112 +1461,112 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
         <v>18.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>16.9</v>
+        <v>16.3</v>
       </c>
       <c r="P6" t="n">
-        <v>26.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.646</v>
+        <v>0.667</v>
       </c>
       <c r="R6" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="S6" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="T6" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="V6" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>16</v>
@@ -1508,16 +1575,16 @@
         <v>24</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
@@ -1526,28 +1593,28 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX6" t="n">
         <v>15</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC6" t="n">
         <v>17</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>20</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1684,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1705,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.9</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>83</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="M8" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39</v>
+        <v>0.367</v>
       </c>
       <c r="O8" t="n">
         <v>22</v>
       </c>
       <c r="P8" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.748</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="T8" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U8" t="n">
         <v>24</v>
       </c>
       <c r="V8" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.1</v>
+        <v>106.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1857,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,22 +1933,22 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>9</v>
       </c>
       <c r="AP8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>9</v>
@@ -1890,28 +1957,28 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>13</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2066,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2087,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
         <v>28</v>
@@ -2221,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2236,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>27</v>
@@ -2257,22 +2324,22 @@
         <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>5.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2403,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>17</v>
@@ -2445,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -2564,28 +2631,28 @@
         <v>-1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
         <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2600,10 +2667,10 @@
         <v>18</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>13</v>
@@ -2627,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
@@ -2767,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
@@ -2791,7 +2858,7 @@
         <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
         <v>8</v>
@@ -2803,16 +2870,16 @@
         <v>12</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -2964,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>23</v>
@@ -2973,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>6</v>
@@ -2991,10 +3058,10 @@
         <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3183,7 @@
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
         <v>24</v>
@@ -3155,10 +3222,10 @@
         <v>15</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3176,7 +3243,7 @@
         <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
         <v>25</v>
@@ -3322,7 +3389,7 @@
         <v>19</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3334,7 +3401,7 @@
         <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>11</v>
@@ -3346,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3355,7 +3422,7 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ16" t="n">
         <v>2</v>
@@ -3367,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-5</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
@@ -3504,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3540,13 +3607,13 @@
         <v>30</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>13</v>
@@ -3686,19 +3753,19 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3716,7 +3783,7 @@
         <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
         <v>8</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -3760,19 +3827,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H19" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I19" t="n">
         <v>31</v>
@@ -3781,76 +3848,76 @@
         <v>75.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="O19" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="P19" t="n">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>31.9</v>
+        <v>31.2</v>
       </c>
       <c r="T19" t="n">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="U19" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="V19" t="n">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
         <v>6.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.6</v>
+        <v>25.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>90.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.1</v>
+        <v>-4.5</v>
       </c>
       <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF19" t="n">
         <v>5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12</v>
-      </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3862,19 +3929,19 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
@@ -3883,37 +3950,37 @@
         <v>21</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
         <v>9</v>
       </c>
       <c r="AZ19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -3942,88 +4009,88 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>37</v>
+        <v>37.7</v>
       </c>
       <c r="J20" t="n">
-        <v>81.5</v>
+        <v>82.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.447</v>
+        <v>0.423</v>
       </c>
       <c r="O20" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>18.4</v>
+        <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.796</v>
+        <v>0.788</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="S20" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>44.1</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="W20" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>97.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4035,49 +4102,49 @@
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV20" t="n">
         <v>6</v>
       </c>
-      <c r="AT20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU20" t="n">
+      <c r="AW20" t="n">
         <v>15</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4089,13 +4156,13 @@
         <v>4</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4275,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
@@ -4223,22 +4290,22 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ21" t="n">
         <v>25</v>
@@ -4250,13 +4317,13 @@
         <v>25</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>20</v>
@@ -4265,16 +4332,16 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
       </c>
       <c r="BA21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>3.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>5</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
@@ -4405,7 +4472,7 @@
         <v>23</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>20</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>2</v>
@@ -4450,16 +4517,16 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>9</v>
       </c>
       <c r="BC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>20</v>
@@ -4587,10 +4654,10 @@
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>24</v>
@@ -4608,7 +4675,7 @@
         <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
         <v>20</v>
@@ -4620,19 +4687,19 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>8</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>1</v>
@@ -4778,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4793,7 +4860,7 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>24</v>
@@ -4811,19 +4878,19 @@
         <v>26</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB24" t="n">
         <v>6</v>
       </c>
       <c r="BC24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -4930,43 +4997,43 @@
         <v>-2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
         <v>19</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>14</v>
@@ -5005,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -5034,127 +5101,127 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="J26" t="n">
-        <v>75.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L26" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.326</v>
+        <v>0.288</v>
       </c>
       <c r="O26" t="n">
-        <v>24.9</v>
+        <v>26.7</v>
       </c>
       <c r="P26" t="n">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.841</v>
+        <v>0.851</v>
       </c>
       <c r="R26" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S26" t="n">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="T26" t="n">
-        <v>35.4</v>
+        <v>36</v>
       </c>
       <c r="U26" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="V26" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="W26" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-9.1</v>
+        <v>-6.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
         <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
@@ -5166,10 +5233,10 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
         <v>28</v>
@@ -5178,16 +5245,16 @@
         <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB26" t="n">
         <v>21</v>
       </c>
       <c r="BC26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>29</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>3</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5515,13 +5582,13 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>11</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>5</v>
@@ -5539,19 +5606,19 @@
         <v>18</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>5.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>17</v>
@@ -5703,7 +5770,7 @@
         <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5712,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>10</v>
@@ -5730,7 +5797,7 @@
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="J30" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.5</v>
@@ -5792,58 +5859,58 @@
         <v>11.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O30" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="P30" t="n">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.769</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="U30" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="V30" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="W30" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="X30" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>111.9</v>
+        <v>111.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF30" t="n">
         <v>5</v>
@@ -5864,58 +5931,58 @@
         <v>2</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>1</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>25</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
         <v>6</v>
@@ -6055,13 +6122,13 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR31" t="n">
         <v>1</v>
@@ -6076,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>21</v>
@@ -6085,13 +6152,13 @@
         <v>10</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-12-2007-08</t>
+          <t>2007-11-12</t>
         </is>
       </c>
     </row>
